--- a/Revue 2/faff2302-tulm2101-oues3008-perf2007-boup2426-bruf1902-clon1502-gaud1910-lajs2004/cahier_charges_fonctionnel.xlsx
+++ b/Revue 2/faff2302-tulm2101-oues3008-perf2007-boup2426-bruf1902-clon1502-gaud1910-lajs2004/cahier_charges_fonctionnel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="2535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Fonctionner en temps réel</t>
   </si>
   <si>
-    <t>Numéro de test associé</t>
-  </si>
-  <si>
     <t>Le développement du produit doit être conforme au plan d'assurance qualité</t>
   </si>
   <si>
@@ -252,18 +249,6 @@
   </si>
   <si>
     <t>AQ</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>Requis</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
   </si>
   <si>
     <t>i1.2</t>
@@ -426,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -479,50 +464,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="L1:M5" totalsRowShown="0">
-  <autoFilter ref="L1:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:L5" totalsRowShown="0">
+  <autoFilter ref="K1:L5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
@@ -554,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="L7:M8" totalsRowShown="0">
-  <autoFilter ref="L7:M8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="K7:L8" totalsRowShown="0">
+  <autoFilter ref="K7:L8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
@@ -861,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,70 +852,63 @@
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="29"/>
+      <c r="I1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
       <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -960,20 +929,19 @@
       <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="20" t="s">
-        <v>82</v>
+      <c r="I3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
@@ -992,16 +960,15 @@
       <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="26"/>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
       <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1026,22 +993,21 @@
       <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>84</v>
+      <c r="I5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
       </c>
       <c r="L5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1062,14 +1028,13 @@
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="I6" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1088,18 +1053,17 @@
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="21"/>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
       <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1118,20 +1082,19 @@
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
       <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1152,16 +1115,13 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="I9" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1180,14 +1140,11 @@
       <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1206,16 +1163,13 @@
       <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1236,14 +1190,13 @@
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="I12" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1262,12 +1215,11 @@
       <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1286,12 +1238,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1310,14 +1261,13 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1338,14 +1288,13 @@
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="I16" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
@@ -1364,21 +1313,20 @@
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
@@ -1386,17 +1334,16 @@
       <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -1404,17 +1351,16 @@
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -1422,17 +1368,16 @@
       <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -1440,10 +1385,9 @@
       <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1453,8 +1397,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1463,23 +1419,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
